--- a/doc/Product_backlog.xlsx
+++ b/doc/Product_backlog.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project_Backlog" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Spring_Backlog" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sprint_Backlog_1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sprint_Backlog_2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="41">
   <si>
     <t xml:space="preserve">Sprint</t>
   </si>
@@ -38,88 +39,112 @@
     <t xml:space="preserve">Prioridad</t>
   </si>
   <si>
+    <t xml:space="preserve">Fecha_Inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha_Vencimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definición del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcance del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selección de programas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalación de programas: Verificación del entorno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear documento con la definición del proyecto y el alcance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear documento Product Backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear documento Sprint Backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear tablero de control con todas las actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear repositorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear Diagrama de clases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear Modelo entidad relación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear Base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de login: Crear formulario ingreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de Interfaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprobación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo Gestión de Usuarios: Crear formulario gestión de usuarios perfiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Productos: Crear formulario para registro de productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo de Clientes: Crear formulario de gestión de Clientes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fecha_Incio</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha_Vencimiento</t>
-  </si>
-  <si>
     <t xml:space="preserve">Definicion del proyecto</t>
   </si>
   <si>
-    <t xml:space="preserve">Todos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hecho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcance del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selección de programas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalación de programas: Verificación del entorno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear documento con la definición del proyecto y el alcance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear documento Product Backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear documento Sprint Backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear tablero de control con todas las actividades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear repositorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear Diagrama de clases</t>
-  </si>
-  <si>
     <t xml:space="preserve">Crear Modelo entidad relacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear Base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo de login: Crear formulario ingreso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historia de usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño de Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pruebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajustes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aprovación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo Gestion de Usuarios: Crear formulario gestión de usuarios perfiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo de Productos: Crear formulario para registro de productos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulo de Clientes: Crear formulario de gestionde Clientes</t>
+    <t xml:space="preserve">Planteamiento de ideas de diseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definición de la paleta de colores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esquema preliminar de la estructura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación preliminar de la pagina de inicio de la página</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación de funciones dinámicas en la página de inicio</t>
   </si>
 </sst>
 </file>
@@ -287,11 +312,11 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.11"/>
@@ -982,11 +1007,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.33"/>
@@ -1013,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -1024,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -1254,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1304,4 +1329,236 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.74"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <f aca="false">2</f>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>44770</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <f aca="false">2</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <f aca="false">F2</f>
+        <v>44770</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <f aca="false">G2</f>
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <f aca="false">2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <f aca="false">F3</f>
+        <v>44770</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <f aca="false">G3</f>
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <f aca="false">2</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <f aca="false">F4</f>
+        <v>44770</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <f aca="false">G4</f>
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <f aca="false">2</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <f aca="false">F5</f>
+        <v>44770</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <f aca="false">G5</f>
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <f aca="false">2</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <f aca="false">F6</f>
+        <v>44770</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">G6</f>
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <f aca="false">2</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <f aca="false">F7</f>
+        <v>44770</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <f aca="false">G7</f>
+        <v>44803</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>